--- a/nc_data/clean_data/nc_time_series_today.xlsx
+++ b/nc_data/clean_data/nc_time_series_today.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="314">
   <si>
     <t>Admin2</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Unique</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Lat</t>
@@ -959,6 +962,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1011,11 +1017,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1310,13 +1317,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,237 +1360,255 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2">
+        <v>214</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G2">
         <v>36.0434701</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-79.39976136999999</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>217</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>169.2142857142857</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>14</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>6.642857142857143</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.09693877551020412</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.01459293394777266</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3">
+        <v>215</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G3">
         <v>35.92237960000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-81.17751948</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>21</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>11.5</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.214285714285714</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.08163265306122448</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.06722689075630252</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4">
+        <v>216</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G4">
         <v>36.49360862</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-81.12857040999999</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>11</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8.285714285714286</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>0.3571428571428572</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.005102040816326532</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.01428571428571429</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>299</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5">
+        <v>217</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G5">
         <v>34.97403241</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-80.09953279</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>49</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>38.07142857142857</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.357142857142857</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.02551020408163266</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.01879699248120301</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>374</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F6">
+        <v>218</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G6">
         <v>36.43296207</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-81.49862729</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>27</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>12.78571428571429</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1.571428571428571</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.1071428571428571</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.06818181818181818</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>449</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7">
+        <v>219</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G7">
         <v>36.07569796</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-81.92308482999999</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
@@ -1599,3399 +1624,3648 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>524</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8">
+        <v>220</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G8">
         <v>35.48531943</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-76.84325809000001</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>30</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>24.92857142857143</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.5714285714285714</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>599</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
-      </c>
-      <c r="F9">
+        <v>221</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G9">
         <v>36.0688473</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-76.96545943</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>87</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>64.92857142857143</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2.857142857142857</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.07142857142857142</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.025</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>674</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10">
+        <v>222</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G10">
         <v>34.61296243</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-78.56180059</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>71</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>53.85714285714285</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3.142857142857143</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.09693877551020406</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.03084415584415584</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>749</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11">
+        <v>223</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G11">
         <v>34.070565</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-78.22814203999999</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>55</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>50.78571428571428</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>0.7857142857142857</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.01530612244897959</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.01948051948051948</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>824</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F12">
+        <v>224</v>
+      </c>
+      <c r="F12" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G12">
         <v>35.61113393</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-82.53305</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>168</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>106.5</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>16</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>6.785714285714286</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.3520408163265306</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.0518796992481203</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>899</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
-      </c>
-      <c r="F13">
+        <v>225</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G13">
         <v>35.74989637</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-81.70755735</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>195</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>146.2857142857143</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>6.071428571428571</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.2193877551020408</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.03613445378151261</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>974</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>225</v>
-      </c>
-      <c r="F14">
+        <v>226</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G14">
         <v>35.3877799</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-80.55267168</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>380</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>349.2857142857143</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>8</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>4.785714285714286</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-0.1938775510204082</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-0.04051172707889127</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>1049</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>226</v>
-      </c>
-      <c r="F15">
+        <v>227</v>
+      </c>
+      <c r="F15" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G15">
         <v>35.95204977</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-81.54799522</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>83</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>60.92857142857143</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>5</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3.357142857142857</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.1734693877551021</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.05167173252279636</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>1124</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16">
+        <v>228</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G16">
         <v>36.33804939</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-76.15568396</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>-0.01020408163265306</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>1199</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17">
+        <v>229</v>
+      </c>
+      <c r="F17" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G17">
         <v>34.8932941</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-76.54120134999999</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>36</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>32.5</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>0.5</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.01020408163265306</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.02040816326530612</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>1274</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>229</v>
-      </c>
-      <c r="F18">
+        <v>230</v>
+      </c>
+      <c r="F18" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G18">
         <v>36.39312665</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-79.33353280999999</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>43</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>39.35714285714285</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>0.7857142857142857</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-0.07142857142857142</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-0.09090909090909091</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>1349</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
-      </c>
-      <c r="F19">
+        <v>231</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G19">
         <v>35.66211129</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-81.2132617</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>100</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>80.57142857142857</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>4</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3.142857142857143</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.1581632653061225</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.05032467532467533</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>1424</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>231</v>
-      </c>
-      <c r="F20">
+        <v>232</v>
+      </c>
+      <c r="F20" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G20">
         <v>35.70394416</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-79.25541492000001</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>507</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>452.7857142857143</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>3</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>9.214285714285714</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-0.663265306122449</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-0.07198228128460687</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>1499</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>232</v>
-      </c>
-      <c r="F21">
+        <v>233</v>
+      </c>
+      <c r="F21" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G21">
         <v>35.1349263</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-84.05970864</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>27</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>24.14285714285714</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>0.5714285714285714</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.02551020408163265</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.04464285714285714</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>1574</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>233</v>
-      </c>
-      <c r="F22">
+        <v>234</v>
+      </c>
+      <c r="F22" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G22">
         <v>36.12908077</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-76.60118385</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>14</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>10.21428571428571</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>0.5</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.03061224489795919</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.06122448979591837</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>1649</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
-      </c>
-      <c r="F23">
+        <v>235</v>
+      </c>
+      <c r="F23" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G23">
         <v>35.05704275</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-83.74353633</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>8</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>7.285714285714286</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>0.1428571428571428</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.00510204081632653</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.03571428571428571</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>1724</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>235</v>
-      </c>
-      <c r="F24">
+        <v>236</v>
+      </c>
+      <c r="F24" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G24">
         <v>35.33553364</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-81.55204486</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>54</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>50.64285714285715</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>0.5</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.02040816326530612</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.04081632653061224</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>1799</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>236</v>
-      </c>
-      <c r="F25">
+        <v>237</v>
+      </c>
+      <c r="F25" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G25">
         <v>34.26744084</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-78.65801424</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>241</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>205.5714285714286</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>3</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>5.357142857142857</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-0.1683673469387756</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-0.03142857142857144</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>1874</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>237</v>
-      </c>
-      <c r="F26">
+        <v>238</v>
+      </c>
+      <c r="F26" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G26">
         <v>35.11833364</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-77.08398081</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>125</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>63.07142857142857</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>41</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>5.928571428571429</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.3826530612244898</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.06454388984509467</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>1949</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F27">
+        <v>239</v>
+      </c>
+      <c r="F27" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G27">
         <v>35.04762133</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-78.82623165</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>468</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>383.0714285714286</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>5</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>12.78571428571429</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.01530612244897966</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.001197126895450923</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>2024</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
-      </c>
-      <c r="F28">
+        <v>240</v>
+      </c>
+      <c r="F28" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G28">
         <v>36.36123664</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-75.95876401</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>11</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>8.571428571428571</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>0.4285714285714285</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.02040816326530612</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.04761904761904762</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>2099</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29">
+        <v>241</v>
+      </c>
+      <c r="F29" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G29">
         <v>35.66520691</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-75.71767334</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>21</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>19.35714285714286</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>0.4285714285714285</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.03061224489795918</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.07142857142857142</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>2174</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>241</v>
-      </c>
-      <c r="F30">
+        <v>242</v>
+      </c>
+      <c r="F30" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G30">
         <v>35.79115496</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-80.21256572</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>288</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>222.0714285714286</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>14</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>7.714285714285714</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.1122448979591837</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.01455026455026455</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>2249</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>242</v>
-      </c>
-      <c r="F31">
+        <v>243</v>
+      </c>
+      <c r="F31" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G31">
         <v>35.93099927</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-80.54496571</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>46</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>36.57142857142857</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
       <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>1.071428571428571</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.03571428571428571</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.03333333333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>2324</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>243</v>
-      </c>
-      <c r="F32">
+        <v>244</v>
+      </c>
+      <c r="F32" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G32">
         <v>34.93449805</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-77.93140529</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>388</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>245</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>20</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>19.5</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.9285714285714286</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.04761904761904762</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>2399</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>244</v>
-      </c>
-      <c r="F33">
+        <v>245</v>
+      </c>
+      <c r="F33" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G33">
         <v>36.03638492</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-78.87608331</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>1000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>892.0714285714286</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>20</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>16.64285714285714</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-0.6377551020408164</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-0.03832004904966279</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>2474</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>245</v>
-      </c>
-      <c r="F34">
+        <v>246</v>
+      </c>
+      <c r="F34" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G34">
         <v>35.91230639</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-77.59436891999999</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>170</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>148.1428571428571</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>3</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>4.642857142857143</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.09183673469387757</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.01978021978021978</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>2549</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>246</v>
-      </c>
-      <c r="F35">
+        <v>247</v>
+      </c>
+      <c r="F35" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G35">
         <v>36.12859861</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-80.25459051999999</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>651</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>436.5</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>24</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>27.42857142857143</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1.239795918367347</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.04520089285714286</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>2624</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>247</v>
-      </c>
-      <c r="F36">
+        <v>248</v>
+      </c>
+      <c r="F36" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G36">
         <v>36.081519</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-78.28708884</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>122</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>113.5714285714286</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>1</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>1.214285714285714</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>-0.09693877551020411</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>-0.07983193277310927</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>2699</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>248</v>
-      </c>
-      <c r="F37">
+        <v>249</v>
+      </c>
+      <c r="F37" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G37">
         <v>35.29373559</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>-81.17477045</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>203</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>177.1428571428571</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>2</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>3.785714285714286</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.07142857142857142</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.01886792452830189</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>2774</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>249</v>
-      </c>
-      <c r="F38">
+        <v>250</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G38">
         <v>36.44667547</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>-76.69749701000001</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>14</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>11.14285714285714</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
       <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>0.3571428571428572</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>2849</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>250</v>
-      </c>
-      <c r="F39">
+        <v>251</v>
+      </c>
+      <c r="F39" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G39">
         <v>35.3506925</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>-83.83369267</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>-0.01020408163265306</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>2924</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>251</v>
-      </c>
-      <c r="F40">
+        <v>252</v>
+      </c>
+      <c r="F40" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G40">
         <v>36.30337451</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>-78.65184241</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>196</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>171.3571428571429</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>6</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>2.642857142857143</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>-0.06122448979591837</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>-0.02316602316602317</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>2999</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
-        <v>252</v>
-      </c>
-      <c r="F41">
+        <v>253</v>
+      </c>
+      <c r="F41" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G41">
         <v>35.48544173</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>-77.67578087</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>45</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>34.35714285714285</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>1</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>1.857142857142857</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>0.1071428571428571</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>0.05769230769230769</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>3074</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>253</v>
-      </c>
-      <c r="F42">
+        <v>254</v>
+      </c>
+      <c r="F42" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G42">
         <v>36.07959451</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>-79.78824948</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>846</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>626.5</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>70</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>29.07142857142857</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>0.7346938775510206</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>0.02527202527202528</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>3149</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
-        <v>254</v>
-      </c>
-      <c r="F43">
+        <v>255</v>
+      </c>
+      <c r="F43" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G43">
         <v>36.25669272</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>-77.6556109</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>107</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>89.92857142857143</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
       <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>3.214285714285714</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>0.07653061224489797</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>0.02380952380952382</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>3224</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E44" t="s">
-        <v>255</v>
-      </c>
-      <c r="F44">
+        <v>256</v>
+      </c>
+      <c r="F44" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G44">
         <v>35.36731853</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>-78.87243571</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>246</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>217.4285714285714</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>6</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>5.142857142857143</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>-0.2244897959183674</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>-0.04365079365079366</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>3299</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
-        <v>256</v>
-      </c>
-      <c r="F45">
+        <v>257</v>
+      </c>
+      <c r="F45" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G45">
         <v>35.55269063</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>-82.98196486000001</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>25</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>19.07142857142857</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>3</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>0.9285714285714286</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>0.03061224489795919</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.03296703296703297</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>3374</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>257</v>
-      </c>
-      <c r="F46">
+        <v>258</v>
+      </c>
+      <c r="F46" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G46">
         <v>35.33788927</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>-82.47667819999999</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>283</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>238.2857142857143</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>3</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>5.857142857142857</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>0.005102040816326513</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.0008710801393728194</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>3449</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>258</v>
-      </c>
-      <c r="F47">
+        <v>259</v>
+      </c>
+      <c r="F47" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G47">
         <v>36.3607755</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>-76.98104134</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>52</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>48.71428571428572</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>1</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>0.7142857142857143</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>-0.1173469387755102</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>-0.1642857142857143</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>3524</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E48" t="s">
-        <v>259</v>
-      </c>
-      <c r="F48">
+        <v>260</v>
+      </c>
+      <c r="F48" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G48">
         <v>35.01888303</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>-79.23651674</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>149</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>122.5714285714286</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>1</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>3.714285714285714</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>-0.1122448979591837</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>-0.03021978021978022</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>3599</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E49" t="s">
-        <v>260</v>
-      </c>
-      <c r="F49">
+        <v>261</v>
+      </c>
+      <c r="F49" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G49">
         <v>35.42017674</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>-76.15180542</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>-0.00510204081632653</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>3674</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>261</v>
-      </c>
-      <c r="F50">
+        <v>262</v>
+      </c>
+      <c r="F50" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G50">
         <v>35.80950511</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>-80.8743128</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>188</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>153.4285714285714</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>7</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>4.928571428571429</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>0.1581632653061225</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>0.03209109730848862</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>3749</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E51" t="s">
-        <v>262</v>
-      </c>
-      <c r="F51">
+        <v>263</v>
+      </c>
+      <c r="F51" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G51">
         <v>35.28814273</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>-83.14093385</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>24</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>21.5</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>0.5714285714285714</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>-0.01530612244897959</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>-0.02678571428571429</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>3824</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E52" t="s">
-        <v>263</v>
-      </c>
-      <c r="F52">
+        <v>264</v>
+      </c>
+      <c r="F52" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G52">
         <v>35.51745004</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>-78.36622717</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>247</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>208.8571428571429</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>13</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>5.214285714285714</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>0.1122448979591837</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>0.02152641878669276</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>3899</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E53" t="s">
-        <v>264</v>
-      </c>
-      <c r="F53">
+        <v>265</v>
+      </c>
+      <c r="F53" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G53">
         <v>35.02254606</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>-77.35870791000001</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>21</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>19.64285714285714</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
       <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>0.2142857142857143</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>-0.03061224489795919</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>-0.1428571428571429</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>3974</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E54" t="s">
-        <v>265</v>
-      </c>
-      <c r="F54">
+        <v>266</v>
+      </c>
+      <c r="F54" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G54">
         <v>35.47623147</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>-79.17569362</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>317</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>263.7142857142857</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>9</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>8.5</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>-0.2295918367346938</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>-0.02701080432172868</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>4049</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
-        <v>266</v>
-      </c>
-      <c r="F55">
+        <v>267</v>
+      </c>
+      <c r="F55" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G55">
         <v>35.24032589999999</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>-77.64245615</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>153</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>118.8571428571429</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>6</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>5.071428571428571</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>0.05102040816326531</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>0.01006036217303823</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>4124</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E56" t="s">
-        <v>267</v>
-      </c>
-      <c r="F56">
+        <v>268</v>
+      </c>
+      <c r="F56" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G56">
         <v>35.48508185</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>-81.21740317</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>48</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>40.28571428571428</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>3</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>1.428571428571429</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>0.05612244897959184</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>0.03928571428571428</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>4199</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E57" t="s">
-        <v>268</v>
-      </c>
-      <c r="F57">
+        <v>269</v>
+      </c>
+      <c r="F57" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G57">
         <v>35.14867843</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>-83.41696616999999</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>4</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>3.142857142857143</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
       <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
         <v>0.07142857142857142</v>
       </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
       <c r="M57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>4274</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E58" t="s">
-        <v>269</v>
-      </c>
-      <c r="F58">
+        <v>270</v>
+      </c>
+      <c r="F58" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G58">
         <v>35.85402722</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>-82.71346418</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>2</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>1.071428571428571</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>1</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>0.07142857142857142</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
       <c r="M58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>4349</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E59" t="s">
-        <v>270</v>
-      </c>
-      <c r="F59">
+        <v>271</v>
+      </c>
+      <c r="F59" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G59">
         <v>35.84326734</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>-77.10860251</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>35</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>29.64285714285714</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
       <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
         <v>1.071428571428571</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>0.02040816326530612</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>0.01904761904761905</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>4424</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E60" t="s">
-        <v>271</v>
-      </c>
-      <c r="F60">
+        <v>272</v>
+      </c>
+      <c r="F60" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G60">
         <v>35.67736232</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>-82.0482425</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>30</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>29.21428571428572</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
       <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
         <v>0.2142857142857143</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>-0.02040816326530612</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>-0.09523809523809523</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>4499</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E61" t="s">
-        <v>272</v>
-      </c>
-      <c r="F61">
+        <v>273</v>
+      </c>
+      <c r="F61" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G61">
         <v>35.24469268</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>-80.83176709999999</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>2591</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>2129.714285714286</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>87</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>61.92857142857143</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>1.663265306122449</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>0.02685780194430713</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>4574</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E62" t="s">
-        <v>273</v>
-      </c>
-      <c r="F62">
+        <v>274</v>
+      </c>
+      <c r="F62" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G62">
         <v>36.01059309</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>-82.1582442</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>8</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>5.428571428571429</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
       <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
         <v>0.2142857142857143</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>0.01530612244897959</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>0.07142857142857142</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>4649</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E63" t="s">
-        <v>274</v>
-      </c>
-      <c r="F63">
+        <v>275</v>
+      </c>
+      <c r="F63" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G63">
         <v>35.33155144</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>-79.90416657</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>56</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>45.42857142857143</v>
       </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
       <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
         <v>1.285714285714286</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>-0.01020408163265306</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>-0.007936507936507933</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>4724</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E64" t="s">
-        <v>275</v>
-      </c>
-      <c r="F64">
+        <v>276</v>
+      </c>
+      <c r="F64" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G64">
         <v>35.30885257</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>-79.48474177999999</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>164</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>154.2857142857143</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
       <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
         <v>2.785714285714286</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>0.03571428571428571</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>0.01282051282051282</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:14">
       <c r="A65" s="1">
         <v>4799</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E65" t="s">
-        <v>276</v>
-      </c>
-      <c r="F65">
+        <v>277</v>
+      </c>
+      <c r="F65" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G65">
         <v>35.96575634</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>-77.98422508</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>149</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>125.3571428571429</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
       <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
         <v>3.571428571428572</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>0.06122448979591837</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>0.01714285714285714</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:14">
       <c r="A66" s="1">
         <v>4874</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E66" t="s">
-        <v>277</v>
-      </c>
-      <c r="F66">
+        <v>278</v>
+      </c>
+      <c r="F66" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G66">
         <v>34.25758282</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>-77.87075625999999</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>127</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>109.3571428571429</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
       <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
         <v>3.428571428571428</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>0.1887755102040816</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>0.05505952380952381</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:14">
       <c r="A67" s="1">
         <v>4949</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E67" t="s">
-        <v>278</v>
-      </c>
-      <c r="F67">
+        <v>279</v>
+      </c>
+      <c r="F67" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G67">
         <v>36.41736238</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>-77.39769443</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>129</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>113.4285714285714</v>
       </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
       <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
         <v>2.857142857142857</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>0.1173469387755102</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>0.04107142857142857</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:14">
       <c r="A68" s="1">
         <v>5024</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E68" t="s">
-        <v>279</v>
-      </c>
-      <c r="F68">
+        <v>280</v>
+      </c>
+      <c r="F68" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G68">
         <v>34.72607366</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>-77.42908179</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>71</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>58.21428571428572</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>1</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>1.428571428571429</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>0.03061224489795919</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>0.02142857142857143</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:14">
       <c r="A69" s="1">
         <v>5099</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E69" t="s">
-        <v>280</v>
-      </c>
-      <c r="F69">
+        <v>281</v>
+      </c>
+      <c r="F69" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G69">
         <v>36.06092947</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>-79.12167934999999</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>275</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>251.1428571428571</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>6</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>3.5</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>0.05102040816326531</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>0.01457725947521866</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:14">
       <c r="A70" s="1">
         <v>5174</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E70" t="s">
-        <v>281</v>
-      </c>
-      <c r="F70">
+        <v>282</v>
+      </c>
+      <c r="F70" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G70">
         <v>35.15253315</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>-76.66559823</v>
-      </c>
-      <c r="H70">
-        <v>8</v>
       </c>
       <c r="I70">
         <v>8</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
         <v>-0.01020408163265306</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="1">
         <v>5249</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E71" t="s">
-        <v>282</v>
-      </c>
-      <c r="F71">
+        <v>283</v>
+      </c>
+      <c r="F71" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G71">
         <v>36.26723798</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>-76.25134778</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>88</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>69.64285714285714</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>1</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>3.642857142857143</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>0.1734693877551021</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>0.04761904761904763</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:14">
       <c r="A72" s="1">
         <v>5324</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E72" t="s">
-        <v>283</v>
-      </c>
-      <c r="F72">
+        <v>284</v>
+      </c>
+      <c r="F72" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G72">
         <v>34.52265624</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>-77.90352133</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>45</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>33.28571428571428</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>1</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>2.071428571428572</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>0.1020408163265306</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>0.04926108374384237</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:14">
       <c r="A73" s="1">
         <v>5399</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E73" t="s">
-        <v>284</v>
-      </c>
-      <c r="F73">
+        <v>285</v>
+      </c>
+      <c r="F73" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G73">
         <v>36.17847453</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>-76.40603143</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>23</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>17.57142857142857</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
       <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
         <v>0.6428571428571429</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>0.0153061224489796</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>0.02380952380952382</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:14">
       <c r="A74" s="1">
         <v>5474</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E74" t="s">
-        <v>285</v>
-      </c>
-      <c r="F74">
+        <v>286</v>
+      </c>
+      <c r="F74" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G74">
         <v>36.38989032</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>-78.97217358</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>32</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>29.07142857142857</v>
       </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
       <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
         <v>0.6428571428571429</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>0.01020408163265306</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>0.01587301587301588</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:14">
       <c r="A75" s="1">
         <v>5549</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E75" t="s">
-        <v>286</v>
-      </c>
-      <c r="F75">
+        <v>287</v>
+      </c>
+      <c r="F75" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G75">
         <v>35.59535426</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>-77.37353177999999</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>207</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>170.2857142857143</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>5</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>5.571428571428571</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>0.2142857142857142</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>0.03846153846153846</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:14">
       <c r="A76" s="1">
         <v>5624</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E76" t="s">
-        <v>287</v>
-      </c>
-      <c r="F76">
+        <v>288</v>
+      </c>
+      <c r="F76" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G76">
         <v>35.27820615</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>-82.16812354</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>32</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>30.14285714285714</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
       <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
         <v>0.5</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>-0.04081632653061224</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>-0.08163265306122448</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:14">
       <c r="A77" s="1">
         <v>5699</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E77" t="s">
-        <v>288</v>
-      </c>
-      <c r="F77">
+        <v>289</v>
+      </c>
+      <c r="F77" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G77">
         <v>35.71015088</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>-79.80570339000001</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>455</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>346.7142857142857</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>17</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>15.5</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>0.2704081632653062</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>0.0174456879526004</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:14">
       <c r="A78" s="1">
         <v>5774</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" t="s">
+        <v>290</v>
+      </c>
+      <c r="F78" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G78">
+        <v>35.00417719</v>
+      </c>
+      <c r="H78">
+        <v>-79.74491009</v>
+      </c>
+      <c r="I78">
         <v>112</v>
       </c>
-      <c r="D78" t="s">
-        <v>189</v>
-      </c>
-      <c r="E78" t="s">
-        <v>289</v>
-      </c>
-      <c r="F78">
-        <v>35.00417719</v>
-      </c>
-      <c r="G78">
-        <v>-79.74491009</v>
-      </c>
-      <c r="H78">
-        <v>112</v>
-      </c>
-      <c r="I78">
+      <c r="J78">
         <v>88.21428571428571</v>
       </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
       <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
         <v>3.928571428571428</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>0.08673469387755099</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>0.02207792207792207</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:14">
       <c r="A79" s="1">
         <v>5849</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E79" t="s">
-        <v>290</v>
-      </c>
-      <c r="F79">
+        <v>291</v>
+      </c>
+      <c r="F79" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G79">
         <v>34.64244496</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>-79.10250529999998</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>531</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>398.4285714285714</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
       <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
         <v>23.57142857142857</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>0.7857142857142858</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>0.03333333333333333</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:14">
       <c r="A80" s="1">
         <v>5924</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E80" t="s">
-        <v>291</v>
-      </c>
-      <c r="F80">
+        <v>292</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G80">
         <v>36.39593137</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>-79.77504841</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>46</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>39.42857142857143</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>1</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>1.428571428571429</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>0.06122448979591837</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>0.04285714285714286</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:14">
       <c r="A81" s="1">
         <v>5999</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E81" t="s">
-        <v>292</v>
-      </c>
-      <c r="F81">
+        <v>293</v>
+      </c>
+      <c r="F81" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G81">
         <v>35.64003916</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>-80.52446628</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>526</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>477.2142857142857</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>1</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>9.857142857142858</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>-0.01020408163265303</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>-0.001035196687370597</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:14">
       <c r="A82" s="1">
         <v>6074</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E82" t="s">
-        <v>293</v>
-      </c>
-      <c r="F82">
+        <v>294</v>
+      </c>
+      <c r="F82" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G82">
         <v>35.40114178</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>-81.92112099000001</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>153</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>151.2142857142857</v>
       </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
       <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
         <v>0.5714285714285714</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>-0.3163265306122449</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>-0.5535714285714286</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:14">
       <c r="A83" s="1">
         <v>6149</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E83" t="s">
-        <v>294</v>
-      </c>
-      <c r="F83">
+        <v>295</v>
+      </c>
+      <c r="F83" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G83">
         <v>34.98820368</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>-78.36914061</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>244</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>163.9285714285714</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>12</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>11.14285714285714</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>0.4591836734693877</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>0.04120879120879121</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:14">
       <c r="A84" s="1">
         <v>6224</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E84" t="s">
-        <v>295</v>
-      </c>
-      <c r="F84">
+        <v>296</v>
+      </c>
+      <c r="F84" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G84">
         <v>34.8386299</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>-79.4757978</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>52</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>40.14285714285715</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>2</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>1.642857142857143</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>0.03061224489795919</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>0.01863354037267081</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:14">
       <c r="A85" s="1">
         <v>6299</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E85" t="s">
-        <v>296</v>
-      </c>
-      <c r="F85">
+        <v>297</v>
+      </c>
+      <c r="F85" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G85">
         <v>35.31647813</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>-80.25093221</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>32</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>30.57142857142857</v>
       </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
       <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
         <v>0.2142857142857143</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>-0.03061224489795919</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>-0.1428571428571429</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:14">
       <c r="A86" s="1">
         <v>6374</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D86" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E86" t="s">
-        <v>297</v>
-      </c>
-      <c r="F86">
+        <v>298</v>
+      </c>
+      <c r="F86" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G86">
         <v>36.4017975</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>-80.23893369</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>30</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>16.07142857142857</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>4</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>1.357142857142857</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>0.09183673469387756</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>0.06766917293233082</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:14">
       <c r="A87" s="1">
         <v>6449</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D87" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E87" t="s">
-        <v>298</v>
-      </c>
-      <c r="F87">
+        <v>299</v>
+      </c>
+      <c r="F87" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G87">
         <v>36.41689489</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>-80.69102282999999</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>89</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>43.92857142857143</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>14</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>5.142857142857143</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>0.3673469387755102</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>0.07142857142857142</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:14">
       <c r="A88" s="1">
         <v>6524</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D88" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E88" t="s">
-        <v>299</v>
-      </c>
-      <c r="F88">
+        <v>300</v>
+      </c>
+      <c r="F88" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G88">
         <v>35.48665845</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>-83.48748931999999</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>6</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>5</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
       <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
         <v>0.1428571428571428</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>-0.01020408163265306</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>-0.07142857142857142</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:14">
       <c r="A89" s="1">
         <v>6599</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E89" t="s">
-        <v>300</v>
-      </c>
-      <c r="F89">
+        <v>301</v>
+      </c>
+      <c r="F89" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G89">
         <v>35.20383864</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>-82.79638423</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>7</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>7.428571428571429</v>
       </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
       <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
         <v>-0.07142857142857142</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>-0.01020408163265306</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>0.1428571428571428</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:14">
       <c r="A90" s="1">
         <v>6674</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E90" t="s">
-        <v>301</v>
-      </c>
-      <c r="F90">
+        <v>302</v>
+      </c>
+      <c r="F90" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G90">
         <v>35.87147226</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>-76.17055252999999</v>
-      </c>
-      <c r="H90">
-        <v>4</v>
       </c>
       <c r="I90">
         <v>4</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -5002,455 +5276,491 @@
       <c r="M90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1">
         <v>6749</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E91" t="s">
-        <v>302</v>
-      </c>
-      <c r="F91">
+        <v>303</v>
+      </c>
+      <c r="F91" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G91">
         <v>34.98960527</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>-80.52955873000001</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>352</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>303.2142857142857</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>1</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>6.357142857142857</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>-0.1275510204081633</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>-0.02006420545746388</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:14">
       <c r="A92" s="1">
         <v>6824</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E92" t="s">
-        <v>303</v>
-      </c>
-      <c r="F92">
+        <v>304</v>
+      </c>
+      <c r="F92" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G92">
         <v>36.36880673</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>-78.40670845</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>195</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>159.7857142857143</v>
       </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
       <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
         <v>5.857142857142857</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>0.005102040816326513</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>0.0008710801393728194</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:14">
       <c r="A93" s="1">
         <v>6899</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E93" t="s">
-        <v>304</v>
-      </c>
-      <c r="F93">
+        <v>305</v>
+      </c>
+      <c r="F93" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G93">
         <v>35.78879266</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>-78.65249174</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>1212</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>1054.5</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>13</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>23.21428571428572</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>0.1530612244897959</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>0.006593406593406592</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:14">
       <c r="A94" s="1">
         <v>6974</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D94" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E94" t="s">
-        <v>305</v>
-      </c>
-      <c r="F94">
+        <v>306</v>
+      </c>
+      <c r="F94" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G94">
         <v>36.39728256</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>-78.10652227999999</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>29</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>22.57142857142857</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>1</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>0.9285714285714286</v>
       </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
       <c r="M94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1">
         <v>7049</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E95" t="s">
-        <v>306</v>
-      </c>
-      <c r="F95">
+        <v>307</v>
+      </c>
+      <c r="F95" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G95">
         <v>35.83810081</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>-76.57299037</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>26</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>25.28571428571428</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
       <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
         <v>0.1428571428571428</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>-0.01020408163265306</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>-0.07142857142857142</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:14">
       <c r="A96" s="1">
         <v>7124</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D96" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E96" t="s">
-        <v>307</v>
-      </c>
-      <c r="F96">
+        <v>308</v>
+      </c>
+      <c r="F96" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G96">
         <v>36.23103603</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>-81.70033724</v>
-      </c>
-      <c r="H96">
-        <v>9</v>
       </c>
       <c r="I96">
         <v>9</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
         <v>-0.00510204081632653</v>
       </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="1">
         <v>7199</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D97" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E97" t="s">
-        <v>308</v>
-      </c>
-      <c r="F97">
+        <v>309</v>
+      </c>
+      <c r="F97" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G97">
         <v>35.36438125</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>-78.00027267999999</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>832</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>745.5714285714286</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>13</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>11.07142857142857</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>-0.3010204081632654</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>-0.02718894009216591</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:14">
       <c r="A98" s="1">
         <v>7274</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D98" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E98" t="s">
-        <v>309</v>
-      </c>
-      <c r="F98">
+        <v>310</v>
+      </c>
+      <c r="F98" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G98">
         <v>36.2084135</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>-81.16232895</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>423</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>239.5714285714286</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>18</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>23.64285714285714</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>1.239795918367347</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>0.05243849805783341</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>7349</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E99" t="s">
-        <v>310</v>
-      </c>
-      <c r="F99">
+        <v>311</v>
+      </c>
+      <c r="F99" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G99">
         <v>35.70625477</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>-77.91797800000001</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>238</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>208.5</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>9</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>4.5</v>
       </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
       <c r="M99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="1">
         <v>7424</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E100" t="s">
-        <v>311</v>
-      </c>
-      <c r="F100">
+        <v>312</v>
+      </c>
+      <c r="F100" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G100">
         <v>36.16222629</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>-80.66239435999999</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>103</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>58.35714285714285</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>5</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>5.714285714285714</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>0.3469387755102041</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <v>0.06071428571428572</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>7499</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E101" t="s">
-        <v>312</v>
-      </c>
-      <c r="F101">
+        <v>313</v>
+      </c>
+      <c r="F101" s="2">
+        <v>43968</v>
+      </c>
+      <c r="G101">
         <v>35.90079156</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>-82.31237181</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>8</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>6.642857142857143</v>
       </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
       <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
         <v>0.5</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>0.03061224489795919</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>0.06122448979591837</v>
       </c>
     </row>
